--- a/results/mp/tinybert/corona/confidence/210/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -73,39 +58,24 @@
     <t>died</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -118,85 +88,118 @@
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -205,58 +208,64 @@
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -983,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1033,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8235294117647058</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7272727272727273</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7397260273972602</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7307692307692307</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5333333333333333</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,45 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,521 +1510,281 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L20">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="C20">
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>8</v>
       </c>
-      <c r="D20">
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>0.66</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>8</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20">
-        <v>0.68</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>39</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L26">
+        <v>54</v>
+      </c>
+      <c r="M26">
+        <v>54</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L27">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21">
-        <v>0.6724137931034483</v>
-      </c>
-      <c r="L21">
-        <v>39</v>
-      </c>
-      <c r="M21">
-        <v>39</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.3133047210300429</v>
-      </c>
-      <c r="C23">
-        <v>73</v>
-      </c>
-      <c r="D23">
-        <v>73</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>160</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23">
-        <v>0.64</v>
-      </c>
-      <c r="L23">
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>0.5352480417754569</v>
+      </c>
+      <c r="L28">
+        <v>205</v>
+      </c>
+      <c r="M28">
+        <v>205</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>19</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>69</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25">
-        <v>0.625</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.1875</v>
-      </c>
-      <c r="C26">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>65</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26">
-        <v>0.5586854460093896</v>
-      </c>
-      <c r="L26">
-        <v>119</v>
-      </c>
-      <c r="M26">
-        <v>119</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>92</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27">
-        <v>0.55</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>117</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L28">
-        <v>16</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>177</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.4961240310077519</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L30">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2051,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.4930555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2077,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.4736842105263158</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2103,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.4571428571428571</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2129,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.391304347826087</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2155,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2181,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.35</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2207,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.2631578947368421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2233,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.1891891891891892</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2259,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.02439024390243903</v>
+        <v>0.328125</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2285,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>400</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.02112676056338028</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2311,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>417</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.007543103448275862</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2337,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>921</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.007454739084132056</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2363,137 +2108,501 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>932</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.005733944954128441</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1734</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.005124919923126201</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1553</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.00439146800501882</v>
+        <v>0.0275</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1587</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.004024144869215292</v>
+        <v>0.02658486707566462</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N46">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1980</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47">
+        <v>0.02552719200887902</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>23</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>0.01901565995525727</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50">
+        <v>0.01401214385801028</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+      <c r="N50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51">
+        <v>0.01317122593718338</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>0.87</v>
+      </c>
+      <c r="O51">
+        <v>0.13</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52">
+        <v>0.01269451269451269</v>
+      </c>
+      <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <v>0.01131363922061597</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>0.86</v>
+      </c>
+      <c r="O53">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54">
+        <v>0.01021021021021021</v>
+      </c>
+      <c r="L54">
+        <v>51</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>0.98</v>
+      </c>
+      <c r="O54">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55">
+        <v>0.009359790340696368</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>27</v>
+      </c>
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56">
+        <v>0.008344923504867872</v>
+      </c>
+      <c r="L56">
+        <v>18</v>
+      </c>
+      <c r="M56">
+        <v>19</v>
+      </c>
+      <c r="N56">
+        <v>0.95</v>
+      </c>
+      <c r="O56">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57">
+        <v>0.008136381247578458</v>
+      </c>
+      <c r="L57">
+        <v>42</v>
+      </c>
+      <c r="M57">
+        <v>45</v>
+      </c>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K47">
-        <v>0.003653444676409186</v>
-      </c>
-      <c r="L47">
-        <v>7</v>
-      </c>
-      <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1909</v>
+      <c r="K58">
+        <v>0.0077269800386349</v>
+      </c>
+      <c r="L58">
+        <v>24</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
+        <v>0.96</v>
+      </c>
+      <c r="O58">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59">
+        <v>0.007372072853425846</v>
+      </c>
+      <c r="L59">
+        <v>17</v>
+      </c>
+      <c r="M59">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>0.85</v>
+      </c>
+      <c r="O59">
+        <v>0.15</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60">
+        <v>0.006734006734006734</v>
+      </c>
+      <c r="L60">
+        <v>16</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>0.84</v>
+      </c>
+      <c r="O60">
+        <v>0.16</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K61">
+        <v>0.005777675063554426</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4302</v>
       </c>
     </row>
   </sheetData>
